--- a/01 业务梳理/智慧养老/养老设备.xlsx
+++ b/01 业务梳理/智慧养老/养老设备.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>产品类型</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>价格（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ü</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腕表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海恩谷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -114,6 +126,20 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,13 +180,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -544,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -558,40 +589,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -605,17 +636,17 @@
       <c r="C2" s="3">
         <v>148</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -629,8 +660,8 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>1</v>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -643,17 +674,17 @@
       <c r="C3" s="3">
         <v>179</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -667,8 +698,8 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
+      <c r="L3" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -681,17 +712,17 @@
       <c r="C4" s="3">
         <v>228</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -705,8 +736,8 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
+      <c r="L4" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -719,17 +750,17 @@
       <c r="C5" s="3">
         <v>159</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -743,8 +774,8 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
+      <c r="L5" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -757,17 +788,17 @@
       <c r="C6" s="3">
         <v>79</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -781,8 +812,8 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="1">
-        <v>1</v>
+      <c r="L6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -795,17 +826,17 @@
       <c r="C7" s="3">
         <v>199</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -819,8 +850,8 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -833,17 +864,17 @@
       <c r="C8" s="3">
         <v>179</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -857,13 +888,227 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
+      <c r="L8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 业务梳理/智慧养老/养老设备.xlsx
+++ b/01 业务梳理/智慧养老/养老设备.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
   <si>
     <t>产品类型</t>
   </si>
@@ -38,64 +38,133 @@
     <t>睡眠检测</t>
   </si>
   <si>
+    <t>记步</t>
+  </si>
+  <si>
+    <t>体温</t>
+  </si>
+  <si>
+    <t>血脂</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>蓝牙</t>
+  </si>
+  <si>
+    <t>手环</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>UMO</t>
+  </si>
+  <si>
+    <t>roruite</t>
+  </si>
+  <si>
+    <t>戴图</t>
+  </si>
+  <si>
+    <t>名喜</t>
+  </si>
+  <si>
+    <t>道易鑫</t>
+  </si>
+  <si>
+    <t>柒柒埃尔</t>
+  </si>
+  <si>
+    <t>ü</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海恩谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腕表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急呼叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助式一体机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血氧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆固醇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿常规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社康中心，养老机构，基层卫生机构，村卫生室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面型健康一体机（手提箱式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面型健康一体机（背包式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小棉袄健康智能腕表旨在密切追踪中老年人的状态信息，当出现异常事件时，可以及时向子女或者监护人发送警报信息佩戴者独处遇险时，定位与一键紧急呼救功能构筑起生命安全通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手环/手表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社村通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌倒报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>心跳</t>
-  </si>
-  <si>
-    <t>记步</t>
-  </si>
-  <si>
-    <t>体温</t>
-  </si>
-  <si>
-    <t>血脂</t>
-  </si>
-  <si>
-    <t>sim</t>
-  </si>
-  <si>
-    <t>wifi</t>
-  </si>
-  <si>
-    <t>蓝牙</t>
-  </si>
-  <si>
-    <t>手环</t>
-  </si>
-  <si>
-    <t>小米</t>
-  </si>
-  <si>
-    <t>UMO</t>
-  </si>
-  <si>
-    <t>roruite</t>
-  </si>
-  <si>
-    <t>戴图</t>
-  </si>
-  <si>
-    <t>名喜</t>
-  </si>
-  <si>
-    <t>道易鑫</t>
-  </si>
-  <si>
-    <t>柒柒埃尔</t>
-  </si>
-  <si>
-    <t>价格（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ü</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腕表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海恩谷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,10 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -119,13 +185,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -150,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -173,29 +232,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,399 +685,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="B1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.08203125"/>
-    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="9.08203125"/>
+    <col min="2" max="2" width="28.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5" customWidth="1"/>
+    <col min="9" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.9140625" customWidth="1"/>
+    <col min="24" max="1033" width="9.08203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="2:23" ht="112" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>148</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3">
-        <v>179</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>228</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>159</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
-        <v>79</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
-        <v>199</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>179</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="28" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="28" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="L11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="28" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="L12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="M13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -979,9 +1290,19 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -993,9 +1314,19 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1007,9 +1338,19 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1021,9 +1362,19 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1035,9 +1386,19 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1049,9 +1410,19 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1063,9 +1434,19 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1077,9 +1458,19 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1091,9 +1482,19 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1105,6 +1506,17 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/01 业务梳理/智慧养老/养老设备.xlsx
+++ b/01 业务梳理/智慧养老/养老设备.xlsx
@@ -156,15 +156,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>跌倒报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>社村通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跌倒报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心跳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -741,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>4</v>
@@ -765,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>22</v>
@@ -1243,7 +1243,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>18</v>
